--- a/data/trans_dic/P36B01_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B01_2023-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>92,04; 95,88</t>
+          <t>91,96; 95,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,52; 96,02</t>
+          <t>93,42; 95,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>93,4; 95,58</t>
+          <t>93,33; 95,53</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,88; 95,61</t>
+          <t>93,02; 95,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>94,09; 96,17</t>
+          <t>93,98; 96,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,93; 95,59</t>
+          <t>94,01; 95,64</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>95,88; 98,58</t>
+          <t>95,86; 98,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>95,47; 97,95</t>
+          <t>95,3; 97,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,16; 98,05</t>
+          <t>96,16; 98,04</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>93,91; 95,83</t>
+          <t>94,02; 95,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94,71; 96,1</t>
+          <t>94,64; 96,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,63; 95,79</t>
+          <t>94,65; 95,79</t>
         </is>
       </c>
     </row>
